--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Compositeur</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Tristam Village</t>
+  </si>
+  <si>
+    <t>Baba Yetu</t>
+  </si>
+  <si>
+    <t>CIV 4</t>
   </si>
 </sst>
 </file>
@@ -337,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C40" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Insatisfaisant">
-  <autoFilter ref="A1:C40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C41" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Insatisfaisant">
+  <autoFilter ref="A1:C41"/>
   <sortState ref="A2:C30">
     <sortCondition sortBy="cellColor" ref="A1:A30" dxfId="1"/>
   </sortState>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1056,17 @@
         <v>63</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Nom</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Dofus</t>
+  </si>
+  <si>
+    <t>Legends of Azeroth</t>
   </si>
 </sst>
 </file>
@@ -675,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1109,15 @@
         <v>68</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Nom</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Legends of Azeroth</t>
+  </si>
+  <si>
+    <t>The Witcher 3</t>
+  </si>
+  <si>
+    <t>The Trail</t>
+  </si>
+  <si>
+    <t>Silver for Monsters</t>
   </si>
 </sst>
 </file>
@@ -404,8 +413,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C41" totalsRowShown="0">
-  <autoFilter ref="A1:C41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C45" totalsRowShown="0">
+  <autoFilter ref="A1:C45"/>
+  <sortState ref="A2:C45">
+    <sortCondition ref="A1:A45"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Compositeur"/>
@@ -678,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,115 +744,121 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -849,133 +867,121 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>39</v>
@@ -986,136 +992,160 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>56</v>
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>64</v>
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Musiques jeux\Musiques-Jeux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoc\Music\Musiques-Jeux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Nom</t>
   </si>
@@ -243,12 +243,21 @@
   </si>
   <si>
     <t>Silver for Monsters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child of Light </t>
+  </si>
+  <si>
+    <t>Cœur de Pirate</t>
+  </si>
+  <si>
+    <t>Aurora's Theme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,8 +422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C45" totalsRowShown="0">
-  <autoFilter ref="A1:C45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C46" totalsRowShown="0">
+  <autoFilter ref="A1:C46"/>
   <sortState ref="A2:C45">
     <sortCondition ref="A1:A45"/>
   </sortState>
@@ -690,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1157,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Nom</t>
   </si>
@@ -252,13 +252,37 @@
   </si>
   <si>
     <t>Aurora's Theme</t>
+  </si>
+  <si>
+    <t>McLarty Party People</t>
+  </si>
+  <si>
+    <t>Super Meat Boy</t>
+  </si>
+  <si>
+    <t>Strike the Earth! Plains of Passages</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>To a Vast World</t>
+  </si>
+  <si>
+    <t>Dragon Quest VIII</t>
+  </si>
+  <si>
+    <t>Pushing Onwards</t>
+  </si>
+  <si>
+    <t>VVVVVV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,8 +313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +345,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,18 +360,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -422,8 +461,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C46" totalsRowShown="0">
-  <autoFilter ref="A1:C46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50"/>
   <sortState ref="A2:C45">
     <sortCondition ref="A1:A45"/>
   </sortState>
@@ -699,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125"/>
     <col min="3" max="3" width="23.5703125"/>
   </cols>
@@ -1166,6 +1205,42 @@
       </c>
       <c r="C46" s="3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>Nom</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>VVVVVV</t>
+  </si>
+  <si>
+    <t>Koichi Sugiyama</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1232,9 @@
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>81</v>
       </c>

--- a/Musiques.xlsx
+++ b/Musiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoc\Music\Musiques-Jeux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Musiques jeux\Musiques-Jeux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -284,8 +284,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,15 +316,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,11 +341,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,21 +351,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
     <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -744,7 +729,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,40 +1196,40 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>83</v>
       </c>
     </row>
